--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Mon hoc\2020_2\Chuyen De\Chuyende20202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D56C3BC-A00F-456A-8DF2-0F2BDF30C39F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C91AE3-4F44-4EB4-A0B3-432B457EADC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{09786781-E7E1-4FF4-A364-0414CC493EC1}"/>
   </bookViews>
@@ -31,6 +31,59 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Người thực hiện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã hoạt động </t>
+  </si>
+  <si>
+    <t>Cấp 1</t>
+  </si>
+  <si>
+    <t>Cấp 2</t>
+  </si>
+  <si>
+    <t>Cấp 3</t>
+  </si>
+  <si>
+    <t>Cấp 4</t>
+  </si>
+  <si>
+    <t>Cấp 5</t>
+  </si>
+  <si>
+    <t>Mô tả hoạt động</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ràng buộc </t>
+  </si>
+  <si>
+    <t>Thời gian dự kiến</t>
+  </si>
+  <si>
+    <t>Tài liệu cần thiết</t>
+  </si>
+  <si>
+    <t>Chi phí ước tính</t>
+  </si>
+  <si>
+    <t>Yêu cầu chất lượng</t>
+  </si>
+  <si>
+    <t>Chi phí chấp nhân</t>
+  </si>
+  <si>
+    <t>Tài liệu tham khảo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +433,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67C7B29-7E08-4B94-BF7B-0A9D92FCC4A9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="15" width="18.28515625" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>